--- a/carga/CONVERSIÓN 2023.xlsx
+++ b/carga/CONVERSIÓN 2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ORNELA\Documents\BARLOVENTO SRL\ANALISIS INFORMACIÓN GANADERA BASE DATOS\CONVERSIÓN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BCD2E8-6D01-4330-AA1F-5A1043EFFFD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8133C596-1FB2-4EEA-AB07-39A660F6061F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6F7186F9-6F66-4B1E-BD47-49D29253A08F}"/>
   </bookViews>
@@ -127,7 +127,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,18 +182,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="7">
@@ -318,7 +306,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -372,11 +360,6 @@
     <xf numFmtId="2" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -404,9 +387,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral 2" xfId="1" xr:uid="{AE60C471-52B3-4F29-BBE6-D6175F762609}"/>
@@ -722,15 +702,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F73D16-2278-4A22-8074-048BCA5C9DF4}">
-  <dimension ref="A1:XFB23"/>
+  <dimension ref="A1:XFB20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.109375" customWidth="1"/>
+    <col min="1" max="1" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="8" width="9" customWidth="1"/>
     <col min="9" max="9" width="4.5546875" customWidth="1"/>
     <col min="10" max="17" width="9" customWidth="1"/>
@@ -738,53 +718,53 @@
     <col min="19" max="35" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1023 1030:2046 2055:3070 3074:4091 4098:5114 5123:6142 6145:7168 7177:8192 8196:9213 9220:10236 10245:11264 11267:12288 12290:13304 13313:14335 14342:15358 15367:16382">
+    <row r="1" spans="1:1023 1030:2046 2055:3070 3074:4091 4098:5114 5123:6142 6145:7168 7177:8192 8196:9213 9220:10236 10245:11264 11267:12288 12290:13304 13313:14335 14342:15358 15367:16382" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
     </row>
-    <row r="4" spans="1:1023 1030:2046 2055:3070 3074:4091 4098:5114 5123:6142 6145:7168 7177:8192 8196:9213 9220:10236 10245:11264 11267:12288 12290:13304 13313:14335 14342:15358 15367:16382">
+    <row r="4" spans="1:1023 1030:2046 2055:3070 3074:4091 4098:5114 5123:6142 6145:7168 7177:8192 8196:9213 9220:10236 10245:11264 11267:12288 12290:13304 13313:14335 14342:15358 15367:16382" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="26"/>
-      <c r="J4" s="27" t="s">
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="21"/>
+      <c r="J4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="29"/>
-      <c r="S4" s="30" t="s">
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="24"/>
+      <c r="S4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AB4" s="32" t="s">
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+      <c r="AB4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="AC4" s="32"/>
-      <c r="AD4" s="32"/>
-      <c r="AE4" s="32"/>
-      <c r="AF4" s="32"/>
-      <c r="AG4" s="32"/>
-      <c r="AH4" s="32"/>
-      <c r="AI4" s="32"/>
+      <c r="AC4" s="27"/>
+      <c r="AD4" s="27"/>
+      <c r="AE4" s="27"/>
+      <c r="AF4" s="27"/>
+      <c r="AG4" s="27"/>
+      <c r="AH4" s="27"/>
+      <c r="AI4" s="27"/>
     </row>
-    <row r="5" spans="1:1023 1030:2046 2055:3070 3074:4091 4098:5114 5123:6142 6145:7168 7177:8192 8196:9213 9220:10236 10245:11264 11267:12288 12290:13304 13313:14335 14342:15358 15367:16382">
+    <row r="5" spans="1:1023 1030:2046 2055:3070 3074:4091 4098:5114 5123:6142 6145:7168 7177:8192 8196:9213 9220:10236 10245:11264 11267:12288 12290:13304 13313:14335 14342:15358 15367:16382" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>2023</v>
       </c>
@@ -879,7 +859,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:1023 1030:2046 2055:3070 3074:4091 4098:5114 5123:6142 6145:7168 7177:8192 8196:9213 9220:10236 10245:11264 11267:12288 12290:13304 13313:14335 14342:15358 15367:16382">
+    <row r="6" spans="1:1023 1030:2046 2055:3070 3074:4091 4098:5114 5123:6142 6145:7168 7177:8192 8196:9213 9220:10236 10245:11264 11267:12288 12290:13304 13313:14335 14342:15358 15367:16382" x14ac:dyDescent="0.3">
       <c r="B6" s="15" t="s">
         <v>17</v>
       </c>
@@ -890,7 +870,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="16">
-        <f>D6-C6</f>
+        <f t="shared" ref="E6:E14" si="0">D6-C6</f>
         <v>134.25038626609444</v>
       </c>
       <c r="F6" s="17">
@@ -933,7 +913,7 @@
         <v>1</v>
       </c>
       <c r="T6" s="16">
-        <f>W6/X6</f>
+        <f t="shared" ref="T6:T14" si="1">W6/X6</f>
         <v>66.374999999999986</v>
       </c>
       <c r="U6" s="16">
@@ -968,7 +948,7 @@
         <v>405.33</v>
       </c>
       <c r="AF6" s="16">
-        <f>AE6-AD6</f>
+        <f t="shared" ref="AF6:AF14" si="2">AE6-AD6</f>
         <v>151.23999999999998</v>
       </c>
       <c r="AG6" s="16">
@@ -981,7 +961,7 @@
         <v>21.21</v>
       </c>
     </row>
-    <row r="7" spans="1:1023 1030:2046 2055:3070 3074:4091 4098:5114 5123:6142 6145:7168 7177:8192 8196:9213 9220:10236 10245:11264 11267:12288 12290:13304 13313:14335 14342:15358 15367:16382">
+    <row r="7" spans="1:1023 1030:2046 2055:3070 3074:4091 4098:5114 5123:6142 6145:7168 7177:8192 8196:9213 9220:10236 10245:11264 11267:12288 12290:13304 13313:14335 14342:15358 15367:16382" x14ac:dyDescent="0.3">
       <c r="B7" s="15" t="s">
         <v>18</v>
       </c>
@@ -992,11 +972,11 @@
         <v>388.84492307692307</v>
       </c>
       <c r="E7" s="16">
-        <f>D7-C7</f>
+        <f t="shared" si="0"/>
         <v>158.88210256410255</v>
       </c>
       <c r="F7" s="17">
-        <f t="shared" ref="F7:F15" si="0">E7/G7</f>
+        <f t="shared" ref="F7:F14" si="3">E7/G7</f>
         <v>138.15835005574135</v>
       </c>
       <c r="G7" s="16">
@@ -1009,7 +989,7 @@
         <v>1.9</v>
       </c>
       <c r="K7" s="16">
-        <f>N7/O7</f>
+        <f t="shared" ref="K7:K14" si="4">N7/O7</f>
         <v>146.17910447761193</v>
       </c>
       <c r="L7" s="16">
@@ -1019,7 +999,7 @@
         <v>329.87</v>
       </c>
       <c r="N7" s="16">
-        <f t="shared" ref="N7:N17" si="1">M7-L7</f>
+        <f t="shared" ref="N7:N14" si="5">M7-L7</f>
         <v>97.94</v>
       </c>
       <c r="O7" s="16">
@@ -1035,7 +1015,7 @@
         <v>1.45</v>
       </c>
       <c r="T7" s="16">
-        <f>W7/X7</f>
+        <f t="shared" si="1"/>
         <v>91.336206896551715</v>
       </c>
       <c r="U7" s="16">
@@ -1045,7 +1025,7 @@
         <v>343.15</v>
       </c>
       <c r="W7" s="16">
-        <f t="shared" ref="W7:W17" si="2">V7-U7</f>
+        <f t="shared" ref="W7:W8" si="6">V7-U7</f>
         <v>105.94999999999999</v>
       </c>
       <c r="X7" s="16">
@@ -1061,7 +1041,7 @@
         <v>1.01</v>
       </c>
       <c r="AC7" s="16">
-        <f>AF7/AG7</f>
+        <f t="shared" ref="AC7:AC14" si="7">AF7/AG7</f>
         <v>143.84482758620692</v>
       </c>
       <c r="AD7" s="16">
@@ -1071,7 +1051,7 @@
         <v>398.35</v>
       </c>
       <c r="AF7" s="16">
-        <f>AE7-AD7</f>
+        <f t="shared" si="2"/>
         <v>166.86</v>
       </c>
       <c r="AG7" s="16">
@@ -1084,49 +1064,49 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="8" spans="1:1023 1030:2046 2055:3070 3074:4091 4098:5114 5123:6142 6145:7168 7177:8192 8196:9213 9220:10236 10245:11264 11267:12288 12290:13304 13313:14335 14342:15358 15367:16382">
+    <row r="8" spans="1:1023 1030:2046 2055:3070 3074:4091 4098:5114 5123:6142 6145:7168 7177:8192 8196:9213 9220:10236 10245:11264 11267:12288 12290:13304 13313:14335 14342:15358 15367:16382" x14ac:dyDescent="0.3">
       <c r="B8" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="16">
-        <v>0</v>
+        <v>208.98</v>
       </c>
       <c r="D8" s="16">
-        <v>0</v>
+        <v>387.55</v>
       </c>
       <c r="E8" s="16">
-        <f t="shared" ref="E7:E13" si="3">D8-C8</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="17" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>178.57000000000002</v>
+      </c>
+      <c r="F8" s="17">
+        <f t="shared" si="3"/>
+        <v>175.06862745098042</v>
       </c>
       <c r="G8" s="16">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="H8" s="16">
-        <v>0</v>
+        <v>6.73</v>
       </c>
       <c r="J8" s="16">
-        <v>0</v>
-      </c>
-      <c r="K8" s="16" t="e">
-        <f t="shared" ref="K8:K15" si="4">N8/O8</f>
-        <v>#DIV/0!</v>
+        <v>1.07</v>
+      </c>
+      <c r="K8" s="16">
+        <f t="shared" si="4"/>
+        <v>139.12280701754383</v>
       </c>
       <c r="L8" s="16">
-        <v>0</v>
+        <v>249.09</v>
       </c>
       <c r="M8" s="16">
-        <v>0</v>
+        <v>328.39</v>
       </c>
       <c r="N8" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>79.299999999999983</v>
       </c>
       <c r="O8" s="16">
-        <v>0</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="P8" s="18">
         <v>0</v>
@@ -1135,101 +1115,101 @@
         <v>0</v>
       </c>
       <c r="S8" s="16">
-        <v>0</v>
-      </c>
-      <c r="T8" s="16" t="e">
-        <f t="shared" ref="T7:T17" si="5">W8/X8</f>
-        <v>#DIV/0!</v>
+        <v>1.79</v>
+      </c>
+      <c r="T8" s="16">
+        <f t="shared" si="1"/>
+        <v>137.09243697478993</v>
       </c>
       <c r="U8" s="16">
-        <v>0</v>
+        <v>199.92</v>
       </c>
       <c r="V8" s="16">
-        <v>0</v>
+        <v>363.06</v>
       </c>
       <c r="W8" s="16">
+        <f t="shared" si="6"/>
+        <v>163.14000000000001</v>
+      </c>
+      <c r="X8" s="16">
+        <v>1.19</v>
+      </c>
+      <c r="Y8" s="16">
+        <v>6.42</v>
+      </c>
+      <c r="Z8" s="16">
+        <v>21.58</v>
+      </c>
+      <c r="AB8" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="16">
+        <f t="shared" si="7"/>
+        <v>162.75</v>
+      </c>
+      <c r="AD8" s="16">
+        <v>223.84</v>
+      </c>
+      <c r="AE8" s="16">
+        <v>412.63</v>
+      </c>
+      <c r="AF8" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X8" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="16" t="e">
-        <f t="shared" ref="AC7:AC17" si="6">AF8/AG8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD8" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="16">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="16">
-        <f t="shared" ref="AF7:AF17" si="7">AE8-AD8</f>
-        <v>0</v>
+        <v>188.79</v>
       </c>
       <c r="AG8" s="16">
-        <v>0</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="AH8" s="16">
-        <v>0</v>
+        <v>7.03</v>
       </c>
       <c r="AI8" s="16">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:1023 1030:2046 2055:3070 3074:4091 4098:5114 5123:6142 6145:7168 7177:8192 8196:9213 9220:10236 10245:11264 11267:12288 12290:13304 13313:14335 14342:15358 15367:16382">
+    <row r="9" spans="1:1023 1030:2046 2055:3070 3074:4091 4098:5114 5123:6142 6145:7168 7177:8192 8196:9213 9220:10236 10245:11264 11267:12288 12290:13304 13313:14335 14342:15358 15367:16382" x14ac:dyDescent="0.3">
       <c r="B9" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="16">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="D9" s="16">
-        <v>0</v>
+        <v>375</v>
       </c>
       <c r="E9" s="16">
+        <f t="shared" si="0"/>
+        <v>179</v>
+      </c>
+      <c r="F9" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="17" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>192.26638023630503</v>
       </c>
       <c r="G9" s="16">
-        <v>0</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="H9" s="16">
-        <v>0</v>
+        <v>6.7129000000000003</v>
       </c>
       <c r="J9" s="16">
-        <v>0</v>
-      </c>
-      <c r="K9" s="16" t="e">
+        <v>1.02</v>
+      </c>
+      <c r="K9" s="16">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>121.0740740740741</v>
       </c>
       <c r="L9" s="16">
-        <v>0</v>
+        <v>241.73</v>
       </c>
       <c r="M9" s="16">
-        <v>0</v>
+        <v>307.11</v>
       </c>
       <c r="N9" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>65.380000000000024</v>
       </c>
       <c r="O9" s="16">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="P9" s="18">
         <v>0</v>
@@ -1238,101 +1218,101 @@
         <v>0</v>
       </c>
       <c r="S9" s="16">
-        <v>0</v>
-      </c>
-      <c r="T9" s="16" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>1.7</v>
+      </c>
+      <c r="T9" s="16">
+        <f t="shared" si="1"/>
+        <v>154.25663716814162</v>
       </c>
       <c r="U9" s="16">
-        <v>0</v>
+        <v>193.01</v>
       </c>
       <c r="V9" s="16">
-        <v>0</v>
+        <v>367.32</v>
       </c>
       <c r="W9" s="16">
+        <f>V9-U9</f>
+        <v>174.31</v>
+      </c>
+      <c r="X9" s="16">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="Y9" s="16">
+        <v>7.09</v>
+      </c>
+      <c r="Z9" s="16">
+        <v>22.02</v>
+      </c>
+      <c r="AB9" s="16">
+        <v>1.27</v>
+      </c>
+      <c r="AC9" s="16">
+        <f t="shared" si="7"/>
+        <v>166.9406779661017</v>
+      </c>
+      <c r="AD9" s="16">
+        <v>212.05</v>
+      </c>
+      <c r="AE9" s="16">
+        <v>409.04</v>
+      </c>
+      <c r="AF9" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X9" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="16" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD9" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="16">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="16">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>196.99</v>
       </c>
       <c r="AG9" s="16">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AH9" s="16">
-        <v>0</v>
+        <v>6.49</v>
       </c>
       <c r="AI9" s="16">
-        <v>0</v>
+        <v>22.55</v>
       </c>
     </row>
-    <row r="10" spans="1:1023 1030:2046 2055:3070 3074:4091 4098:5114 5123:6142 6145:7168 7177:8192 8196:9213 9220:10236 10245:11264 11267:12288 12290:13304 13313:14335 14342:15358 15367:16382">
+    <row r="10" spans="1:1023 1030:2046 2055:3070 3074:4091 4098:5114 5123:6142 6145:7168 7177:8192 8196:9213 9220:10236 10245:11264 11267:12288 12290:13304 13313:14335 14342:15358 15367:16382" x14ac:dyDescent="0.3">
       <c r="B10" s="15" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="16">
-        <v>0</v>
+        <v>203.51</v>
       </c>
       <c r="D10" s="16">
-        <v>0</v>
+        <v>387.54</v>
       </c>
       <c r="E10" s="16">
+        <f t="shared" si="0"/>
+        <v>184.03000000000003</v>
+      </c>
+      <c r="F10" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="17" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>200.03260869565219</v>
       </c>
       <c r="G10" s="16">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="H10" s="16">
-        <v>0</v>
+        <v>6.7</v>
       </c>
       <c r="J10" s="16">
-        <v>0</v>
-      </c>
-      <c r="K10" s="16" t="e">
+        <v>1.05</v>
+      </c>
+      <c r="K10" s="16">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>152.93877551020412</v>
       </c>
       <c r="L10" s="16">
-        <v>0</v>
+        <v>239.23</v>
       </c>
       <c r="M10" s="16">
-        <v>0</v>
+        <v>314.17</v>
       </c>
       <c r="N10" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>74.940000000000026</v>
       </c>
       <c r="O10" s="16">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="P10" s="18">
         <v>0</v>
@@ -1341,101 +1321,101 @@
         <v>0</v>
       </c>
       <c r="S10" s="16">
-        <v>0</v>
-      </c>
-      <c r="T10" s="16" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>1.68</v>
+      </c>
+      <c r="T10" s="16">
+        <f t="shared" si="1"/>
+        <v>146.62068965517241</v>
       </c>
       <c r="U10" s="16">
-        <v>0</v>
+        <v>191.44</v>
       </c>
       <c r="V10" s="16">
-        <v>0</v>
+        <v>361.52</v>
       </c>
       <c r="W10" s="16">
+        <f>V10-U10</f>
+        <v>170.07999999999998</v>
+      </c>
+      <c r="X10" s="16">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="Y10" s="16">
+        <v>6.55</v>
+      </c>
+      <c r="Z10" s="16">
+        <v>22.91</v>
+      </c>
+      <c r="AB10" s="16">
+        <v>1.23</v>
+      </c>
+      <c r="AC10" s="16">
+        <f t="shared" si="7"/>
+        <v>192.27145057533752</v>
+      </c>
+      <c r="AD10" s="16">
+        <v>233.33</v>
+      </c>
+      <c r="AE10" s="16">
+        <v>445.54</v>
+      </c>
+      <c r="AF10" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X10" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="16" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD10" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="16">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="16">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>212.21</v>
       </c>
       <c r="AG10" s="16">
-        <v>0</v>
+        <v>1.1036999999999999</v>
       </c>
       <c r="AH10" s="16">
-        <v>0</v>
+        <v>7.06</v>
       </c>
       <c r="AI10" s="16">
-        <v>0</v>
+        <v>24.19</v>
       </c>
     </row>
-    <row r="11" spans="1:1023 1030:2046 2055:3070 3074:4091 4098:5114 5123:6142 6145:7168 7177:8192 8196:9213 9220:10236 10245:11264 11267:12288 12290:13304 13313:14335 14342:15358 15367:16382">
+    <row r="11" spans="1:1023 1030:2046 2055:3070 3074:4091 4098:5114 5123:6142 6145:7168 7177:8192 8196:9213 9220:10236 10245:11264 11267:12288 12290:13304 13313:14335 14342:15358 15367:16382" x14ac:dyDescent="0.3">
       <c r="B11" s="15" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="16">
-        <v>0</v>
+        <v>211.78</v>
       </c>
       <c r="D11" s="16">
-        <v>0</v>
+        <v>392.34</v>
       </c>
       <c r="E11" s="16">
+        <f t="shared" si="0"/>
+        <v>180.55999999999997</v>
+      </c>
+      <c r="F11" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="17" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>192.08510638297869</v>
       </c>
       <c r="G11" s="16">
-        <v>0</v>
+        <v>0.94</v>
       </c>
       <c r="H11" s="16">
-        <v>0</v>
+        <v>6.95</v>
       </c>
       <c r="J11" s="16">
-        <v>0</v>
-      </c>
-      <c r="K11" s="16" t="e">
+        <v>1</v>
+      </c>
+      <c r="K11" s="16">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>150.99616858237545</v>
       </c>
       <c r="L11" s="16">
-        <v>0</v>
+        <v>219.36</v>
       </c>
       <c r="M11" s="16">
-        <v>0</v>
+        <v>298.18</v>
       </c>
       <c r="N11" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>78.819999999999993</v>
       </c>
       <c r="O11" s="16">
-        <v>0</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="P11" s="18">
         <v>0</v>
@@ -1444,101 +1424,101 @@
         <v>0</v>
       </c>
       <c r="S11" s="16">
-        <v>0</v>
-      </c>
-      <c r="T11" s="16" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>1.58</v>
+      </c>
+      <c r="T11" s="16">
+        <f t="shared" si="1"/>
+        <v>125.22181146025875</v>
       </c>
       <c r="U11" s="16">
-        <v>0</v>
+        <v>208.54</v>
       </c>
       <c r="V11" s="16">
-        <v>0</v>
+        <v>344.03</v>
       </c>
       <c r="W11" s="16">
+        <f>V11-U11</f>
+        <v>135.48999999999998</v>
+      </c>
+      <c r="X11" s="16">
+        <v>1.0820000000000001</v>
+      </c>
+      <c r="Y11" s="16">
+        <v>6.62</v>
+      </c>
+      <c r="Z11" s="16">
+        <v>24.78</v>
+      </c>
+      <c r="AB11" s="16">
+        <v>1.37</v>
+      </c>
+      <c r="AC11" s="16">
+        <f t="shared" si="7"/>
+        <v>198.66727107887581</v>
+      </c>
+      <c r="AD11" s="16">
+        <v>214.79</v>
+      </c>
+      <c r="AE11" s="16">
+        <v>433.92</v>
+      </c>
+      <c r="AF11" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X11" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="16" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD11" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="16">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="16">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>219.13000000000002</v>
       </c>
       <c r="AG11" s="16">
-        <v>0</v>
+        <v>1.103</v>
       </c>
       <c r="AH11" s="16">
-        <v>0</v>
+        <v>7.12</v>
       </c>
       <c r="AI11" s="16">
-        <v>0</v>
+        <v>24.26</v>
       </c>
     </row>
-    <row r="12" spans="1:1023 1030:2046 2055:3070 3074:4091 4098:5114 5123:6142 6145:7168 7177:8192 8196:9213 9220:10236 10245:11264 11267:12288 12290:13304 13313:14335 14342:15358 15367:16382">
+    <row r="12" spans="1:1023 1030:2046 2055:3070 3074:4091 4098:5114 5123:6142 6145:7168 7177:8192 8196:9213 9220:10236 10245:11264 11267:12288 12290:13304 13313:14335 14342:15358 15367:16382" x14ac:dyDescent="0.3">
       <c r="B12" s="15" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="16">
-        <v>0</v>
+        <v>210.93</v>
       </c>
       <c r="D12" s="16">
-        <v>0</v>
+        <v>363.34429999999998</v>
       </c>
       <c r="E12" s="16">
+        <f t="shared" si="0"/>
+        <v>152.41429999999997</v>
+      </c>
+      <c r="F12" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="17" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>143.78707547169807</v>
       </c>
       <c r="G12" s="16">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="H12" s="16">
-        <v>0</v>
+        <v>6.82</v>
       </c>
       <c r="J12" s="16">
-        <v>0</v>
-      </c>
-      <c r="K12" s="16" t="e">
+        <v>1</v>
+      </c>
+      <c r="K12" s="16">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>115.31683228784065</v>
       </c>
       <c r="L12" s="16">
-        <v>0</v>
+        <v>228.23</v>
       </c>
       <c r="M12" s="16">
-        <v>0</v>
+        <v>281.10000000000002</v>
       </c>
       <c r="N12" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>52.870000000000033</v>
       </c>
       <c r="O12" s="16">
-        <v>0</v>
+        <v>0.45847599999999999</v>
       </c>
       <c r="P12" s="18">
         <v>0</v>
@@ -1547,101 +1527,101 @@
         <v>0</v>
       </c>
       <c r="S12" s="16">
-        <v>0</v>
-      </c>
-      <c r="T12" s="16" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>1.52</v>
+      </c>
+      <c r="T12" s="16">
+        <f t="shared" si="1"/>
+        <v>110.2180401804018</v>
       </c>
       <c r="U12" s="16">
-        <v>0</v>
+        <v>208.83</v>
       </c>
       <c r="V12" s="16">
-        <v>0</v>
+        <v>343.24090000000001</v>
       </c>
       <c r="W12" s="16">
+        <f>V12-U12</f>
+        <v>134.4109</v>
+      </c>
+      <c r="X12" s="16">
+        <v>1.2195</v>
+      </c>
+      <c r="Y12" s="16">
+        <v>6.57</v>
+      </c>
+      <c r="Z12" s="16">
+        <v>26.11</v>
+      </c>
+      <c r="AB12" s="16">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="AC12" s="16">
+        <f t="shared" si="7"/>
+        <v>183.42150681289277</v>
+      </c>
+      <c r="AD12" s="16">
+        <v>214.72</v>
+      </c>
+      <c r="AE12" s="16">
+        <v>409.95</v>
+      </c>
+      <c r="AF12" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X12" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="16" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD12" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="16">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="16">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>195.23</v>
       </c>
       <c r="AG12" s="16">
-        <v>0</v>
+        <v>1.064379</v>
       </c>
       <c r="AH12" s="16">
-        <v>0</v>
+        <v>7.2531999999999996</v>
       </c>
       <c r="AI12" s="16">
-        <v>0</v>
+        <v>24.962299999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:1023 1030:2046 2055:3070 3074:4091 4098:5114 5123:6142 6145:7168 7177:8192 8196:9213 9220:10236 10245:11264 11267:12288 12290:13304 13313:14335 14342:15358 15367:16382">
+    <row r="13" spans="1:1023 1030:2046 2055:3070 3074:4091 4098:5114 5123:6142 6145:7168 7177:8192 8196:9213 9220:10236 10245:11264 11267:12288 12290:13304 13313:14335 14342:15358 15367:16382" x14ac:dyDescent="0.3">
       <c r="B13" s="15" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="16">
-        <v>0</v>
+        <v>212.74</v>
       </c>
       <c r="D13" s="16">
-        <v>0</v>
+        <v>383.32</v>
       </c>
       <c r="E13" s="16">
+        <f t="shared" si="0"/>
+        <v>170.57999999999998</v>
+      </c>
+      <c r="F13" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="17" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>165.61165048543688</v>
       </c>
       <c r="G13" s="16">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="H13" s="16">
-        <v>0</v>
+        <v>6.48</v>
       </c>
       <c r="J13" s="16">
-        <v>0</v>
-      </c>
-      <c r="K13" s="16" t="e">
+        <v>1</v>
+      </c>
+      <c r="K13" s="16">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>126.25000000000006</v>
       </c>
       <c r="L13" s="16">
-        <v>0</v>
+        <v>224.07</v>
       </c>
       <c r="M13" s="16">
-        <v>0</v>
+        <v>284.67</v>
       </c>
       <c r="N13" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>60.600000000000023</v>
       </c>
       <c r="O13" s="16">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="P13" s="18">
         <v>0</v>
@@ -1650,101 +1630,101 @@
         <v>0</v>
       </c>
       <c r="S13" s="16">
-        <v>0</v>
-      </c>
-      <c r="T13" s="16" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>1.32</v>
+      </c>
+      <c r="T13" s="16">
+        <f t="shared" si="1"/>
+        <v>116.0550458715596</v>
       </c>
       <c r="U13" s="16">
-        <v>0</v>
+        <v>212.96</v>
       </c>
       <c r="V13" s="16">
-        <v>0</v>
+        <v>339.46</v>
       </c>
       <c r="W13" s="16">
+        <f>V13-U13</f>
+        <v>126.49999999999997</v>
+      </c>
+      <c r="X13" s="16">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="Y13" s="16">
+        <v>6.35</v>
+      </c>
+      <c r="Z13" s="16">
+        <v>28.65</v>
+      </c>
+      <c r="AB13" s="16">
+        <v>1.2</v>
+      </c>
+      <c r="AC13" s="16">
+        <f t="shared" si="7"/>
+        <v>188.11864406779662</v>
+      </c>
+      <c r="AD13" s="16">
+        <v>212.87</v>
+      </c>
+      <c r="AE13" s="16">
+        <v>434.85</v>
+      </c>
+      <c r="AF13" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X13" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="16" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD13" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="16">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="16">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>221.98000000000002</v>
       </c>
       <c r="AG13" s="16">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AH13" s="16">
-        <v>0</v>
+        <v>6.61</v>
       </c>
       <c r="AI13" s="16">
-        <v>0</v>
+        <v>27.91</v>
       </c>
     </row>
-    <row r="14" spans="1:1023 1030:2046 2055:3070 3074:4091 4098:5114 5123:6142 6145:7168 7177:8192 8196:9213 9220:10236 10245:11264 11267:12288 12290:13304 13313:14335 14342:15358 15367:16382">
+    <row r="14" spans="1:1023 1030:2046 2055:3070 3074:4091 4098:5114 5123:6142 6145:7168 7177:8192 8196:9213 9220:10236 10245:11264 11267:12288 12290:13304 13313:14335 14342:15358 15367:16382" x14ac:dyDescent="0.3">
       <c r="B14" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="16">
-        <v>0</v>
+        <v>207.49</v>
       </c>
       <c r="D14" s="16">
-        <v>0</v>
+        <v>412.94</v>
       </c>
       <c r="E14" s="16">
-        <f>D14-C14</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="17" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>205.45</v>
+      </c>
+      <c r="F14" s="17">
+        <f t="shared" si="3"/>
+        <v>193.8207547169811</v>
       </c>
       <c r="G14" s="16">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="H14" s="16">
-        <v>0</v>
+        <v>6.78</v>
       </c>
       <c r="J14" s="16">
-        <v>0</v>
-      </c>
-      <c r="K14" s="16" t="e">
+        <v>1</v>
+      </c>
+      <c r="K14" s="16">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>112.46296296296299</v>
       </c>
       <c r="L14" s="16">
-        <v>0</v>
+        <v>223.07</v>
       </c>
       <c r="M14" s="16">
-        <v>0</v>
+        <v>283.8</v>
       </c>
       <c r="N14" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>60.730000000000018</v>
       </c>
       <c r="O14" s="16">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="P14" s="18">
         <v>0</v>
@@ -1753,267 +1733,103 @@
         <v>0</v>
       </c>
       <c r="S14" s="16">
-        <v>0</v>
-      </c>
-      <c r="T14" s="16" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="T14" s="16">
+        <f t="shared" si="1"/>
+        <v>117.00925925925922</v>
       </c>
       <c r="U14" s="16">
-        <v>0</v>
+        <v>222.27</v>
       </c>
       <c r="V14" s="16">
-        <v>0</v>
+        <v>348.64</v>
       </c>
       <c r="W14" s="16">
+        <f>V14-U14</f>
+        <v>126.36999999999998</v>
+      </c>
+      <c r="X14" s="16">
+        <v>1.08</v>
+      </c>
+      <c r="Y14" s="16">
+        <v>6.21</v>
+      </c>
+      <c r="Z14" s="16">
+        <v>33.1</v>
+      </c>
+      <c r="AB14" s="16">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AC14" s="16">
+        <f t="shared" si="7"/>
+        <v>212.62962962962959</v>
+      </c>
+      <c r="AD14" s="16">
+        <v>203.25</v>
+      </c>
+      <c r="AE14" s="16">
+        <v>432.89</v>
+      </c>
+      <c r="AF14" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X14" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="16" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD14" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="16">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="16">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>229.64</v>
       </c>
       <c r="AG14" s="16">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AH14" s="16">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AI14" s="16">
-        <v>0</v>
+        <v>28.74</v>
       </c>
     </row>
-    <row r="15" spans="1:1023 1030:2046 2055:3070 3074:4091 4098:5114 5123:6142 6145:7168 7177:8192 8196:9213 9220:10236 10245:11264 11267:12288 12290:13304 13313:14335 14342:15358 15367:16382">
+    <row r="15" spans="1:1023 1030:2046 2055:3070 3074:4091 4098:5114 5123:6142 6145:7168 7177:8192 8196:9213 9220:10236 10245:11264 11267:12288 12290:13304 13313:14335 14342:15358 15367:16382" x14ac:dyDescent="0.3">
       <c r="B15" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="16">
-        <v>0</v>
-      </c>
-      <c r="D15" s="16">
-        <v>0</v>
-      </c>
-      <c r="E15" s="16">
-        <f t="shared" ref="E15:E17" si="8">D15-C15</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="17" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G15" s="16">
-        <v>0</v>
-      </c>
-      <c r="H15" s="16">
-        <v>0</v>
-      </c>
-      <c r="J15" s="16">
-        <v>0</v>
-      </c>
-      <c r="K15" s="16" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L15" s="16">
-        <v>0</v>
-      </c>
-      <c r="M15" s="16">
-        <v>0</v>
-      </c>
-      <c r="N15" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O15" s="16">
-        <v>0</v>
-      </c>
-      <c r="P15" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="16">
-        <v>0</v>
-      </c>
-      <c r="S15" s="16">
-        <v>0</v>
-      </c>
-      <c r="T15" s="16" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U15" s="16">
-        <v>0</v>
-      </c>
-      <c r="V15" s="16">
-        <v>0</v>
-      </c>
-      <c r="W15" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X15" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="16" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD15" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="16">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="16">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AG15" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH15" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI15" s="16">
-        <v>0</v>
-      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="16"/>
+      <c r="Y15" s="16"/>
+      <c r="Z15" s="16"/>
+      <c r="AB15" s="16"/>
+      <c r="AC15" s="16"/>
+      <c r="AD15" s="16"/>
+      <c r="AE15" s="16"/>
+      <c r="AF15" s="16"/>
+      <c r="AG15" s="16"/>
+      <c r="AH15" s="16"/>
+      <c r="AI15" s="16"/>
     </row>
-    <row r="16" spans="1:1023 1030:2046 2055:3070 3074:4091 4098:5114 5123:6142 6145:7168 7177:8192 8196:9213 9220:10236 10245:11264 11267:12288 12290:13304 13313:14335 14342:15358 15367:16382" s="16" customFormat="1">
+    <row r="16" spans="1:1023 1030:2046 2055:3070 3074:4091 4098:5114 5123:6142 6145:7168 7177:8192 8196:9213 9220:10236 10245:11264 11267:12288 12290:13304 13313:14335 14342:15358 15367:16382" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16"/>
       <c r="B16" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="16">
-        <v>0</v>
-      </c>
-      <c r="D16" s="16">
-        <v>0</v>
-      </c>
-      <c r="E16" s="16">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="17" t="e">
-        <f t="shared" ref="F16:F17" si="9">E16/G16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G16" s="16">
-        <v>0</v>
-      </c>
-      <c r="H16" s="16">
-        <v>0</v>
-      </c>
+      <c r="F16" s="17"/>
       <c r="I16"/>
-      <c r="J16" s="16">
-        <v>0</v>
-      </c>
-      <c r="K16" s="16" t="e">
-        <f>N16/O16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L16" s="16">
-        <v>0</v>
-      </c>
-      <c r="M16" s="16">
-        <v>0</v>
-      </c>
-      <c r="N16" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O16" s="16">
-        <v>0</v>
-      </c>
-      <c r="P16" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="16">
-        <v>0</v>
-      </c>
+      <c r="P16" s="18"/>
       <c r="R16"/>
-      <c r="S16" s="16">
-        <v>0</v>
-      </c>
-      <c r="T16" s="16" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U16" s="16">
-        <v>0</v>
-      </c>
-      <c r="V16" s="16">
-        <v>0</v>
-      </c>
-      <c r="W16" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X16" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="16">
-        <v>0</v>
-      </c>
       <c r="AA16"/>
-      <c r="AB16" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="16" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD16" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="16">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="16">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AG16" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="16">
-        <v>0</v>
-      </c>
       <c r="AP16" s="18"/>
       <c r="AR16"/>
       <c r="BA16"/>
@@ -5787,292 +5603,204 @@
       <c r="XFA16"/>
       <c r="XFB16" s="15"/>
     </row>
-    <row r="17" spans="2:67">
+    <row r="17" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B17" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="16">
-        <v>0</v>
-      </c>
-      <c r="D17" s="16">
-        <v>0</v>
-      </c>
-      <c r="E17" s="16">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="17" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G17" s="16">
-        <v>0</v>
-      </c>
-      <c r="H17" s="16">
-        <v>0</v>
-      </c>
-      <c r="J17" s="16">
-        <v>0</v>
-      </c>
-      <c r="K17" s="16" t="e">
-        <f>N17/O17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L17" s="16">
-        <v>0</v>
-      </c>
-      <c r="M17" s="16">
-        <v>0</v>
-      </c>
-      <c r="N17" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O17" s="16">
-        <v>0</v>
-      </c>
-      <c r="P17" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="16">
-        <v>0</v>
-      </c>
-      <c r="S17" s="16">
-        <v>0</v>
-      </c>
-      <c r="T17" s="16" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U17" s="16">
-        <v>0</v>
-      </c>
-      <c r="V17" s="16">
-        <v>0</v>
-      </c>
-      <c r="W17" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X17" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="16" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD17" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="16">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="16">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AG17" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH17" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI17" s="16">
-        <v>0</v>
-      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="16"/>
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="16"/>
+      <c r="AB17" s="16"/>
+      <c r="AC17" s="16"/>
+      <c r="AD17" s="16"/>
+      <c r="AE17" s="16"/>
+      <c r="AF17" s="16"/>
+      <c r="AG17" s="16"/>
+      <c r="AH17" s="16"/>
+      <c r="AI17" s="16"/>
     </row>
-    <row r="19" spans="2:67">
+    <row r="19" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B19" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" ref="C19:AI19" si="10">AVERAGE(C6:C7)</f>
-        <v>243.09621712336303</v>
+        <f>AVERAGE(C6:C14)</f>
+        <v>215.29138158296959</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="10"/>
-        <v>388.84492307692307</v>
+        <f>AVERAGE(D6:D14)</f>
+        <v>386.35990288461539</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="10"/>
-        <v>146.56624441509848</v>
+        <f>AVERAGE(E6:E14)</f>
+        <v>171.52630987002189</v>
       </c>
       <c r="F19" s="1">
-        <f>AVERAGE(F6:F7)</f>
-        <v>117.37068087898379</v>
+        <f>AVERAGE(F6:F14)</f>
+        <v>166.379285022</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="10"/>
-        <v>1.27</v>
+        <f>AVERAGE(G6:G14)</f>
+        <v>1.0556666666666665</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="10"/>
-        <v>6.6349999999999998</v>
+        <f>AVERAGE(H6:H14)</f>
+        <v>6.7158777777777789</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1">
-        <f t="shared" si="10"/>
-        <v>1.45</v>
+        <f>AVERAGE(J6:J14)</f>
+        <v>1.1155555555555554</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="10"/>
-        <v>139.26142723880599</v>
+        <f>AVERAGE(K6:K14)</f>
+        <v>132.96494165695702</v>
       </c>
       <c r="L19" s="1">
-        <f t="shared" si="10"/>
-        <v>202.32</v>
+        <f>AVERAGE(L6:L14)</f>
+        <v>225.49111111111111</v>
       </c>
       <c r="M19" s="1">
-        <f t="shared" si="10"/>
-        <v>293.64</v>
+        <f>AVERAGE(M6:M14)</f>
+        <v>298.3</v>
       </c>
       <c r="N19" s="1">
-        <f t="shared" si="10"/>
-        <v>91.320000000000007</v>
+        <f>AVERAGE(N6:N14)</f>
+        <v>72.808888888888916</v>
       </c>
       <c r="O19" s="1">
-        <f t="shared" si="10"/>
-        <v>0.65500000000000003</v>
+        <f>AVERAGE(O6:O14)</f>
+        <v>0.54560844444444445</v>
       </c>
       <c r="P19" s="1">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(P6:P14)</f>
         <v>0</v>
       </c>
       <c r="Q19" s="1">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(Q6:Q14)</f>
         <v>0</v>
       </c>
       <c r="R19" s="1"/>
       <c r="S19" s="1">
-        <f t="shared" si="10"/>
-        <v>1.2250000000000001</v>
+        <f>AVERAGE(S6:S14)</f>
+        <v>1.4644444444444444</v>
       </c>
       <c r="T19" s="1">
-        <f t="shared" si="10"/>
-        <v>78.855603448275843</v>
+        <f>AVERAGE(T6:T14)</f>
+        <v>118.24279194068168</v>
       </c>
       <c r="U19" s="1">
-        <f t="shared" si="10"/>
-        <v>250.13499999999999</v>
+        <f>AVERAGE(U6:U14)</f>
+        <v>215.24888888888887</v>
       </c>
       <c r="V19" s="1">
-        <f t="shared" si="10"/>
-        <v>348.65</v>
+        <f>AVERAGE(V6:V14)</f>
+        <v>351.61898888888879</v>
       </c>
       <c r="W19" s="1">
-        <f t="shared" si="10"/>
-        <v>98.109999999999985</v>
+        <f>AVERAGE(W6:W14)</f>
+        <v>136.28009999999998</v>
       </c>
       <c r="X19" s="1">
-        <f t="shared" si="10"/>
-        <v>1.26</v>
+        <f>AVERAGE(X6:X14)</f>
+        <v>1.1635</v>
       </c>
       <c r="Y19" s="1">
-        <f t="shared" si="10"/>
-        <v>6.1850000000000005</v>
+        <f>AVERAGE(Y6:Y14)</f>
+        <v>6.4644444444444442</v>
       </c>
       <c r="Z19" s="1">
-        <f t="shared" si="10"/>
-        <v>23.175000000000001</v>
+        <f>AVERAGE(Z6:Z14)</f>
+        <v>25.055555555555557</v>
       </c>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1">
-        <f t="shared" si="10"/>
-        <v>1.0049999999999999</v>
+        <f>AVERAGE(AB6:AB14)</f>
+        <v>1.1544444444444444</v>
       </c>
       <c r="AC19" s="1">
-        <f t="shared" si="10"/>
-        <v>125.55361946686233</v>
+        <f>AVERAGE(AC6:AC14)</f>
+        <v>172.87849100715096</v>
       </c>
       <c r="AD19" s="1">
-        <f t="shared" si="10"/>
-        <v>242.79000000000002</v>
+        <f>AVERAGE(AD6:AD14)</f>
+        <v>222.26999999999998</v>
       </c>
       <c r="AE19" s="1">
-        <f t="shared" si="10"/>
-        <v>401.84000000000003</v>
+        <f>AVERAGE(AE6:AE14)</f>
+        <v>420.27777777777771</v>
       </c>
       <c r="AF19" s="1">
-        <f t="shared" si="10"/>
-        <v>159.05000000000001</v>
+        <f>AVERAGE(AF6:AF14)</f>
+        <v>198.00777777777779</v>
       </c>
       <c r="AG19" s="1">
-        <f t="shared" si="10"/>
-        <v>1.2849999999999999</v>
+        <f>AVERAGE(AG6:AG14)</f>
+        <v>1.1601198888888886</v>
       </c>
       <c r="AH19" s="1">
-        <f t="shared" si="10"/>
-        <v>6.78</v>
+        <f>AVERAGE(AH6:AH14)</f>
+        <v>6.9025777777777773</v>
       </c>
       <c r="AI19" s="1">
-        <f t="shared" si="10"/>
-        <v>21.954999999999998</v>
+        <f>AVERAGE(AI6:AI14)</f>
+        <v>24.391366666666666</v>
       </c>
     </row>
-    <row r="21" spans="2:67" s="19" customFormat="1" ht="13.2" customHeight="1">
-      <c r="B21" s="20"/>
-      <c r="C21" s="21"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="22"/>
-      <c r="S21" s="22"/>
-      <c r="T21" s="22"/>
-      <c r="U21" s="22"/>
-      <c r="V21" s="22"/>
-      <c r="W21" s="22"/>
-      <c r="X21" s="22"/>
-      <c r="Y21" s="22"/>
-      <c r="Z21" s="22"/>
-      <c r="AA21" s="22"/>
-      <c r="AB21" s="22"/>
-      <c r="AC21" s="22"/>
-      <c r="AD21" s="22"/>
-      <c r="AE21" s="22"/>
-      <c r="AF21" s="22"/>
-      <c r="AG21" s="22"/>
-      <c r="AH21" s="22"/>
-      <c r="AI21" s="22"/>
-      <c r="AJ21" s="22"/>
-      <c r="AK21" s="22"/>
-      <c r="AL21" s="22"/>
-      <c r="AM21" s="22"/>
-      <c r="BC21" s="23"/>
-      <c r="BO21" s="23"/>
-    </row>
-    <row r="22" spans="2:67">
-      <c r="AB22" s="33"/>
-      <c r="AC22" s="33"/>
-      <c r="AD22" s="33"/>
-      <c r="AE22" s="33"/>
-      <c r="AF22" s="33"/>
-      <c r="AG22" s="33"/>
-      <c r="AH22" s="33"/>
-      <c r="AI22" s="33"/>
-    </row>
-    <row r="23" spans="2:67">
-      <c r="AB23" s="35"/>
-      <c r="AC23" s="35"/>
-      <c r="AD23" s="35"/>
-      <c r="AE23" s="35"/>
-      <c r="AF23" s="34"/>
-      <c r="AG23" s="34"/>
-      <c r="AH23" s="34"/>
-      <c r="AI23" s="34"/>
+    <row r="20" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B20" s="15"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="1"/>
+      <c r="AI20" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/carga/CONVERSIÓN 2023.xlsx
+++ b/carga/CONVERSIÓN 2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ORNELA\Documents\BARLOVENTO SRL\ANALISIS INFORMACIÓN GANADERA BASE DATOS\CONVERSIÓN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8133C596-1FB2-4EEA-AB07-39A660F6061F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BCD2E8-6D01-4330-AA1F-5A1043EFFFD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6F7186F9-6F66-4B1E-BD47-49D29253A08F}"/>
   </bookViews>
@@ -127,7 +127,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +182,18 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="7">
@@ -306,7 +318,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -360,6 +372,11 @@
     <xf numFmtId="2" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -387,6 +404,9 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral 2" xfId="1" xr:uid="{AE60C471-52B3-4F29-BBE6-D6175F762609}"/>
@@ -702,15 +722,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F73D16-2278-4A22-8074-048BCA5C9DF4}">
-  <dimension ref="A1:XFB20"/>
+  <dimension ref="A1:XFB23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" customWidth="1"/>
     <col min="3" max="8" width="9" customWidth="1"/>
     <col min="9" max="9" width="4.5546875" customWidth="1"/>
     <col min="10" max="17" width="9" customWidth="1"/>
@@ -718,53 +738,53 @@
     <col min="19" max="35" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1023 1030:2046 2055:3070 3074:4091 4098:5114 5123:6142 6145:7168 7177:8192 8196:9213 9220:10236 10245:11264 11267:12288 12290:13304 13313:14335 14342:15358 15367:16382" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1023 1030:2046 2055:3070 3074:4091 4098:5114 5123:6142 6145:7168 7177:8192 8196:9213 9220:10236 10245:11264 11267:12288 12290:13304 13313:14335 14342:15358 15367:16382">
       <c r="A1" s="1"/>
     </row>
-    <row r="4" spans="1:1023 1030:2046 2055:3070 3074:4091 4098:5114 5123:6142 6145:7168 7177:8192 8196:9213 9220:10236 10245:11264 11267:12288 12290:13304 13313:14335 14342:15358 15367:16382" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1023 1030:2046 2055:3070 3074:4091 4098:5114 5123:6142 6145:7168 7177:8192 8196:9213 9220:10236 10245:11264 11267:12288 12290:13304 13313:14335 14342:15358 15367:16382">
       <c r="B4" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="21"/>
-      <c r="J4" s="22" t="s">
+      <c r="C4" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="26"/>
+      <c r="J4" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="24"/>
-      <c r="S4" s="25" t="s">
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="29"/>
+      <c r="S4" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="26"/>
-      <c r="AB4" s="27" t="s">
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
+      <c r="AB4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="AC4" s="27"/>
-      <c r="AD4" s="27"/>
-      <c r="AE4" s="27"/>
-      <c r="AF4" s="27"/>
-      <c r="AG4" s="27"/>
-      <c r="AH4" s="27"/>
-      <c r="AI4" s="27"/>
+      <c r="AC4" s="32"/>
+      <c r="AD4" s="32"/>
+      <c r="AE4" s="32"/>
+      <c r="AF4" s="32"/>
+      <c r="AG4" s="32"/>
+      <c r="AH4" s="32"/>
+      <c r="AI4" s="32"/>
     </row>
-    <row r="5" spans="1:1023 1030:2046 2055:3070 3074:4091 4098:5114 5123:6142 6145:7168 7177:8192 8196:9213 9220:10236 10245:11264 11267:12288 12290:13304 13313:14335 14342:15358 15367:16382" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1023 1030:2046 2055:3070 3074:4091 4098:5114 5123:6142 6145:7168 7177:8192 8196:9213 9220:10236 10245:11264 11267:12288 12290:13304 13313:14335 14342:15358 15367:16382">
       <c r="B5">
         <v>2023</v>
       </c>
@@ -859,7 +879,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:1023 1030:2046 2055:3070 3074:4091 4098:5114 5123:6142 6145:7168 7177:8192 8196:9213 9220:10236 10245:11264 11267:12288 12290:13304 13313:14335 14342:15358 15367:16382" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1023 1030:2046 2055:3070 3074:4091 4098:5114 5123:6142 6145:7168 7177:8192 8196:9213 9220:10236 10245:11264 11267:12288 12290:13304 13313:14335 14342:15358 15367:16382">
       <c r="B6" s="15" t="s">
         <v>17</v>
       </c>
@@ -870,7 +890,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="16">
-        <f t="shared" ref="E6:E14" si="0">D6-C6</f>
+        <f>D6-C6</f>
         <v>134.25038626609444</v>
       </c>
       <c r="F6" s="17">
@@ -913,7 +933,7 @@
         <v>1</v>
       </c>
       <c r="T6" s="16">
-        <f t="shared" ref="T6:T14" si="1">W6/X6</f>
+        <f>W6/X6</f>
         <v>66.374999999999986</v>
       </c>
       <c r="U6" s="16">
@@ -948,7 +968,7 @@
         <v>405.33</v>
       </c>
       <c r="AF6" s="16">
-        <f t="shared" ref="AF6:AF14" si="2">AE6-AD6</f>
+        <f>AE6-AD6</f>
         <v>151.23999999999998</v>
       </c>
       <c r="AG6" s="16">
@@ -961,7 +981,7 @@
         <v>21.21</v>
       </c>
     </row>
-    <row r="7" spans="1:1023 1030:2046 2055:3070 3074:4091 4098:5114 5123:6142 6145:7168 7177:8192 8196:9213 9220:10236 10245:11264 11267:12288 12290:13304 13313:14335 14342:15358 15367:16382" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1023 1030:2046 2055:3070 3074:4091 4098:5114 5123:6142 6145:7168 7177:8192 8196:9213 9220:10236 10245:11264 11267:12288 12290:13304 13313:14335 14342:15358 15367:16382">
       <c r="B7" s="15" t="s">
         <v>18</v>
       </c>
@@ -972,11 +992,11 @@
         <v>388.84492307692307</v>
       </c>
       <c r="E7" s="16">
-        <f t="shared" si="0"/>
+        <f>D7-C7</f>
         <v>158.88210256410255</v>
       </c>
       <c r="F7" s="17">
-        <f t="shared" ref="F7:F14" si="3">E7/G7</f>
+        <f t="shared" ref="F7:F15" si="0">E7/G7</f>
         <v>138.15835005574135</v>
       </c>
       <c r="G7" s="16">
@@ -989,7 +1009,7 @@
         <v>1.9</v>
       </c>
       <c r="K7" s="16">
-        <f t="shared" ref="K7:K14" si="4">N7/O7</f>
+        <f>N7/O7</f>
         <v>146.17910447761193</v>
       </c>
       <c r="L7" s="16">
@@ -999,7 +1019,7 @@
         <v>329.87</v>
       </c>
       <c r="N7" s="16">
-        <f t="shared" ref="N7:N14" si="5">M7-L7</f>
+        <f t="shared" ref="N7:N17" si="1">M7-L7</f>
         <v>97.94</v>
       </c>
       <c r="O7" s="16">
@@ -1015,7 +1035,7 @@
         <v>1.45</v>
       </c>
       <c r="T7" s="16">
-        <f t="shared" si="1"/>
+        <f>W7/X7</f>
         <v>91.336206896551715</v>
       </c>
       <c r="U7" s="16">
@@ -1025,7 +1045,7 @@
         <v>343.15</v>
       </c>
       <c r="W7" s="16">
-        <f t="shared" ref="W7:W8" si="6">V7-U7</f>
+        <f t="shared" ref="W7:W17" si="2">V7-U7</f>
         <v>105.94999999999999</v>
       </c>
       <c r="X7" s="16">
@@ -1041,7 +1061,7 @@
         <v>1.01</v>
       </c>
       <c r="AC7" s="16">
-        <f t="shared" ref="AC7:AC14" si="7">AF7/AG7</f>
+        <f>AF7/AG7</f>
         <v>143.84482758620692</v>
       </c>
       <c r="AD7" s="16">
@@ -1051,7 +1071,7 @@
         <v>398.35</v>
       </c>
       <c r="AF7" s="16">
-        <f t="shared" si="2"/>
+        <f>AE7-AD7</f>
         <v>166.86</v>
       </c>
       <c r="AG7" s="16">
@@ -1064,49 +1084,49 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="8" spans="1:1023 1030:2046 2055:3070 3074:4091 4098:5114 5123:6142 6145:7168 7177:8192 8196:9213 9220:10236 10245:11264 11267:12288 12290:13304 13313:14335 14342:15358 15367:16382" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1023 1030:2046 2055:3070 3074:4091 4098:5114 5123:6142 6145:7168 7177:8192 8196:9213 9220:10236 10245:11264 11267:12288 12290:13304 13313:14335 14342:15358 15367:16382">
       <c r="B8" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="16">
-        <v>208.98</v>
+        <v>0</v>
       </c>
       <c r="D8" s="16">
-        <v>387.55</v>
+        <v>0</v>
       </c>
       <c r="E8" s="16">
+        <f t="shared" ref="E7:E13" si="3">D8-C8</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="17" t="e">
         <f t="shared" si="0"/>
-        <v>178.57000000000002</v>
-      </c>
-      <c r="F8" s="17">
-        <f t="shared" si="3"/>
-        <v>175.06862745098042</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G8" s="16">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="H8" s="16">
-        <v>6.73</v>
+        <v>0</v>
       </c>
       <c r="J8" s="16">
-        <v>1.07</v>
-      </c>
-      <c r="K8" s="16">
-        <f t="shared" si="4"/>
-        <v>139.12280701754383</v>
+        <v>0</v>
+      </c>
+      <c r="K8" s="16" t="e">
+        <f t="shared" ref="K8:K15" si="4">N8/O8</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="L8" s="16">
-        <v>249.09</v>
+        <v>0</v>
       </c>
       <c r="M8" s="16">
-        <v>328.39</v>
+        <v>0</v>
       </c>
       <c r="N8" s="16">
-        <f t="shared" si="5"/>
-        <v>79.299999999999983</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O8" s="16">
-        <v>0.56999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P8" s="18">
         <v>0</v>
@@ -1115,721 +1135,885 @@
         <v>0</v>
       </c>
       <c r="S8" s="16">
-        <v>1.79</v>
-      </c>
-      <c r="T8" s="16">
-        <f t="shared" si="1"/>
-        <v>137.09243697478993</v>
+        <v>0</v>
+      </c>
+      <c r="T8" s="16" t="e">
+        <f t="shared" ref="T7:T17" si="5">W8/X8</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="U8" s="16">
-        <v>199.92</v>
+        <v>0</v>
       </c>
       <c r="V8" s="16">
-        <v>363.06</v>
+        <v>0</v>
       </c>
       <c r="W8" s="16">
-        <f t="shared" si="6"/>
-        <v>163.14000000000001</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="X8" s="16">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="16">
-        <v>6.42</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="16">
-        <v>21.58</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="16">
-        <v>1</v>
-      </c>
-      <c r="AC8" s="16">
-        <f t="shared" si="7"/>
-        <v>162.75</v>
+        <v>0</v>
+      </c>
+      <c r="AC8" s="16" t="e">
+        <f t="shared" ref="AC7:AC17" si="6">AF8/AG8</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="AD8" s="16">
-        <v>223.84</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="16">
-        <v>412.63</v>
+        <v>0</v>
       </c>
       <c r="AF8" s="16">
-        <f t="shared" si="2"/>
-        <v>188.79</v>
+        <f t="shared" ref="AF7:AF17" si="7">AE8-AD8</f>
+        <v>0</v>
       </c>
       <c r="AG8" s="16">
-        <v>1.1599999999999999</v>
+        <v>0</v>
       </c>
       <c r="AH8" s="16">
-        <v>7.03</v>
+        <v>0</v>
       </c>
       <c r="AI8" s="16">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:1023 1030:2046 2055:3070 3074:4091 4098:5114 5123:6142 6145:7168 7177:8192 8196:9213 9220:10236 10245:11264 11267:12288 12290:13304 13313:14335 14342:15358 15367:16382" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1023 1030:2046 2055:3070 3074:4091 4098:5114 5123:6142 6145:7168 7177:8192 8196:9213 9220:10236 10245:11264 11267:12288 12290:13304 13313:14335 14342:15358 15367:16382">
       <c r="B9" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="16">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="D9" s="16">
-        <v>375</v>
+        <v>0</v>
       </c>
       <c r="E9" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="17" t="e">
         <f t="shared" si="0"/>
-        <v>179</v>
-      </c>
-      <c r="F9" s="17">
-        <f t="shared" si="3"/>
-        <v>192.26638023630503</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G9" s="16">
-        <v>0.93100000000000005</v>
+        <v>0</v>
       </c>
       <c r="H9" s="16">
-        <v>6.7129000000000003</v>
+        <v>0</v>
       </c>
       <c r="J9" s="16">
-        <v>1.02</v>
-      </c>
-      <c r="K9" s="16">
+        <v>0</v>
+      </c>
+      <c r="K9" s="16" t="e">
         <f t="shared" si="4"/>
-        <v>121.0740740740741</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L9" s="16">
-        <v>241.73</v>
+        <v>0</v>
       </c>
       <c r="M9" s="16">
-        <v>307.11</v>
+        <v>0</v>
       </c>
       <c r="N9" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="16">
+        <v>0</v>
+      </c>
+      <c r="P9" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="16">
+        <v>0</v>
+      </c>
+      <c r="S9" s="16">
+        <v>0</v>
+      </c>
+      <c r="T9" s="16" t="e">
         <f t="shared" si="5"/>
-        <v>65.380000000000024</v>
-      </c>
-      <c r="O9" s="16">
-        <v>0.54</v>
-      </c>
-      <c r="P9" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="16">
-        <v>0</v>
-      </c>
-      <c r="S9" s="16">
-        <v>1.7</v>
-      </c>
-      <c r="T9" s="16">
-        <f t="shared" si="1"/>
-        <v>154.25663716814162</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="U9" s="16">
-        <v>193.01</v>
+        <v>0</v>
       </c>
       <c r="V9" s="16">
-        <v>367.32</v>
+        <v>0</v>
       </c>
       <c r="W9" s="16">
-        <f>V9-U9</f>
-        <v>174.31</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="X9" s="16">
-        <v>1.1299999999999999</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="16">
-        <v>7.09</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="16">
-        <v>22.02</v>
+        <v>0</v>
       </c>
       <c r="AB9" s="16">
-        <v>1.27</v>
-      </c>
-      <c r="AC9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="16" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="16">
         <f t="shared" si="7"/>
-        <v>166.9406779661017</v>
-      </c>
-      <c r="AD9" s="16">
-        <v>212.05</v>
-      </c>
-      <c r="AE9" s="16">
-        <v>409.04</v>
-      </c>
-      <c r="AF9" s="16">
-        <f t="shared" si="2"/>
-        <v>196.99</v>
+        <v>0</v>
       </c>
       <c r="AG9" s="16">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="AH9" s="16">
-        <v>6.49</v>
+        <v>0</v>
       </c>
       <c r="AI9" s="16">
-        <v>22.55</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:1023 1030:2046 2055:3070 3074:4091 4098:5114 5123:6142 6145:7168 7177:8192 8196:9213 9220:10236 10245:11264 11267:12288 12290:13304 13313:14335 14342:15358 15367:16382" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1023 1030:2046 2055:3070 3074:4091 4098:5114 5123:6142 6145:7168 7177:8192 8196:9213 9220:10236 10245:11264 11267:12288 12290:13304 13313:14335 14342:15358 15367:16382">
       <c r="B10" s="15" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="16">
-        <v>203.51</v>
+        <v>0</v>
       </c>
       <c r="D10" s="16">
-        <v>387.54</v>
+        <v>0</v>
       </c>
       <c r="E10" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="17" t="e">
         <f t="shared" si="0"/>
-        <v>184.03000000000003</v>
-      </c>
-      <c r="F10" s="17">
-        <f t="shared" si="3"/>
-        <v>200.03260869565219</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G10" s="16">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="H10" s="16">
-        <v>6.7</v>
+        <v>0</v>
       </c>
       <c r="J10" s="16">
-        <v>1.05</v>
-      </c>
-      <c r="K10" s="16">
+        <v>0</v>
+      </c>
+      <c r="K10" s="16" t="e">
         <f t="shared" si="4"/>
-        <v>152.93877551020412</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L10" s="16">
-        <v>239.23</v>
+        <v>0</v>
       </c>
       <c r="M10" s="16">
-        <v>314.17</v>
+        <v>0</v>
       </c>
       <c r="N10" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="16">
+        <v>0</v>
+      </c>
+      <c r="P10" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="16">
+        <v>0</v>
+      </c>
+      <c r="S10" s="16">
+        <v>0</v>
+      </c>
+      <c r="T10" s="16" t="e">
         <f t="shared" si="5"/>
-        <v>74.940000000000026</v>
-      </c>
-      <c r="O10" s="16">
-        <v>0.49</v>
-      </c>
-      <c r="P10" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="16">
-        <v>0</v>
-      </c>
-      <c r="S10" s="16">
-        <v>1.68</v>
-      </c>
-      <c r="T10" s="16">
-        <f t="shared" si="1"/>
-        <v>146.62068965517241</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="U10" s="16">
-        <v>191.44</v>
+        <v>0</v>
       </c>
       <c r="V10" s="16">
-        <v>361.52</v>
+        <v>0</v>
       </c>
       <c r="W10" s="16">
-        <f>V10-U10</f>
-        <v>170.07999999999998</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="X10" s="16">
-        <v>1.1599999999999999</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="16">
-        <v>6.55</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="16">
-        <v>22.91</v>
+        <v>0</v>
       </c>
       <c r="AB10" s="16">
-        <v>1.23</v>
-      </c>
-      <c r="AC10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="16" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="16">
         <f t="shared" si="7"/>
-        <v>192.27145057533752</v>
-      </c>
-      <c r="AD10" s="16">
-        <v>233.33</v>
-      </c>
-      <c r="AE10" s="16">
-        <v>445.54</v>
-      </c>
-      <c r="AF10" s="16">
-        <f t="shared" si="2"/>
-        <v>212.21</v>
+        <v>0</v>
       </c>
       <c r="AG10" s="16">
-        <v>1.1036999999999999</v>
+        <v>0</v>
       </c>
       <c r="AH10" s="16">
-        <v>7.06</v>
+        <v>0</v>
       </c>
       <c r="AI10" s="16">
-        <v>24.19</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:1023 1030:2046 2055:3070 3074:4091 4098:5114 5123:6142 6145:7168 7177:8192 8196:9213 9220:10236 10245:11264 11267:12288 12290:13304 13313:14335 14342:15358 15367:16382" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1023 1030:2046 2055:3070 3074:4091 4098:5114 5123:6142 6145:7168 7177:8192 8196:9213 9220:10236 10245:11264 11267:12288 12290:13304 13313:14335 14342:15358 15367:16382">
       <c r="B11" s="15" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="16">
-        <v>211.78</v>
+        <v>0</v>
       </c>
       <c r="D11" s="16">
-        <v>392.34</v>
+        <v>0</v>
       </c>
       <c r="E11" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="17" t="e">
         <f t="shared" si="0"/>
-        <v>180.55999999999997</v>
-      </c>
-      <c r="F11" s="17">
-        <f t="shared" si="3"/>
-        <v>192.08510638297869</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G11" s="16">
-        <v>0.94</v>
+        <v>0</v>
       </c>
       <c r="H11" s="16">
-        <v>6.95</v>
+        <v>0</v>
       </c>
       <c r="J11" s="16">
-        <v>1</v>
-      </c>
-      <c r="K11" s="16">
+        <v>0</v>
+      </c>
+      <c r="K11" s="16" t="e">
         <f t="shared" si="4"/>
-        <v>150.99616858237545</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L11" s="16">
-        <v>219.36</v>
+        <v>0</v>
       </c>
       <c r="M11" s="16">
-        <v>298.18</v>
+        <v>0</v>
       </c>
       <c r="N11" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="16">
+        <v>0</v>
+      </c>
+      <c r="P11" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="16">
+        <v>0</v>
+      </c>
+      <c r="S11" s="16">
+        <v>0</v>
+      </c>
+      <c r="T11" s="16" t="e">
         <f t="shared" si="5"/>
-        <v>78.819999999999993</v>
-      </c>
-      <c r="O11" s="16">
-        <v>0.52200000000000002</v>
-      </c>
-      <c r="P11" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="16">
-        <v>0</v>
-      </c>
-      <c r="S11" s="16">
-        <v>1.58</v>
-      </c>
-      <c r="T11" s="16">
-        <f t="shared" si="1"/>
-        <v>125.22181146025875</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="U11" s="16">
-        <v>208.54</v>
+        <v>0</v>
       </c>
       <c r="V11" s="16">
-        <v>344.03</v>
+        <v>0</v>
       </c>
       <c r="W11" s="16">
-        <f>V11-U11</f>
-        <v>135.48999999999998</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="X11" s="16">
-        <v>1.0820000000000001</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="16">
-        <v>6.62</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="16">
-        <v>24.78</v>
+        <v>0</v>
       </c>
       <c r="AB11" s="16">
-        <v>1.37</v>
-      </c>
-      <c r="AC11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="16" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="16">
         <f t="shared" si="7"/>
-        <v>198.66727107887581</v>
-      </c>
-      <c r="AD11" s="16">
-        <v>214.79</v>
-      </c>
-      <c r="AE11" s="16">
-        <v>433.92</v>
-      </c>
-      <c r="AF11" s="16">
-        <f t="shared" si="2"/>
-        <v>219.13000000000002</v>
+        <v>0</v>
       </c>
       <c r="AG11" s="16">
-        <v>1.103</v>
+        <v>0</v>
       </c>
       <c r="AH11" s="16">
-        <v>7.12</v>
+        <v>0</v>
       </c>
       <c r="AI11" s="16">
-        <v>24.26</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:1023 1030:2046 2055:3070 3074:4091 4098:5114 5123:6142 6145:7168 7177:8192 8196:9213 9220:10236 10245:11264 11267:12288 12290:13304 13313:14335 14342:15358 15367:16382" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1023 1030:2046 2055:3070 3074:4091 4098:5114 5123:6142 6145:7168 7177:8192 8196:9213 9220:10236 10245:11264 11267:12288 12290:13304 13313:14335 14342:15358 15367:16382">
       <c r="B12" s="15" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="16">
-        <v>210.93</v>
+        <v>0</v>
       </c>
       <c r="D12" s="16">
-        <v>363.34429999999998</v>
+        <v>0</v>
       </c>
       <c r="E12" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="17" t="e">
         <f t="shared" si="0"/>
-        <v>152.41429999999997</v>
-      </c>
-      <c r="F12" s="17">
-        <f t="shared" si="3"/>
-        <v>143.78707547169807</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G12" s="16">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="H12" s="16">
-        <v>6.82</v>
+        <v>0</v>
       </c>
       <c r="J12" s="16">
-        <v>1</v>
-      </c>
-      <c r="K12" s="16">
+        <v>0</v>
+      </c>
+      <c r="K12" s="16" t="e">
         <f t="shared" si="4"/>
-        <v>115.31683228784065</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L12" s="16">
-        <v>228.23</v>
+        <v>0</v>
       </c>
       <c r="M12" s="16">
-        <v>281.10000000000002</v>
+        <v>0</v>
       </c>
       <c r="N12" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="16">
+        <v>0</v>
+      </c>
+      <c r="P12" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="16">
+        <v>0</v>
+      </c>
+      <c r="S12" s="16">
+        <v>0</v>
+      </c>
+      <c r="T12" s="16" t="e">
         <f t="shared" si="5"/>
-        <v>52.870000000000033</v>
-      </c>
-      <c r="O12" s="16">
-        <v>0.45847599999999999</v>
-      </c>
-      <c r="P12" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="16">
-        <v>0</v>
-      </c>
-      <c r="S12" s="16">
-        <v>1.52</v>
-      </c>
-      <c r="T12" s="16">
-        <f t="shared" si="1"/>
-        <v>110.2180401804018</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="U12" s="16">
-        <v>208.83</v>
+        <v>0</v>
       </c>
       <c r="V12" s="16">
-        <v>343.24090000000001</v>
+        <v>0</v>
       </c>
       <c r="W12" s="16">
-        <f>V12-U12</f>
-        <v>134.4109</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="X12" s="16">
-        <v>1.2195</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="16">
-        <v>6.57</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="16">
-        <v>26.11</v>
+        <v>0</v>
       </c>
       <c r="AB12" s="16">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="AC12" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="16" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD12" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="16">
         <f t="shared" si="7"/>
-        <v>183.42150681289277</v>
-      </c>
-      <c r="AD12" s="16">
-        <v>214.72</v>
-      </c>
-      <c r="AE12" s="16">
-        <v>409.95</v>
-      </c>
-      <c r="AF12" s="16">
-        <f t="shared" si="2"/>
-        <v>195.23</v>
+        <v>0</v>
       </c>
       <c r="AG12" s="16">
-        <v>1.064379</v>
+        <v>0</v>
       </c>
       <c r="AH12" s="16">
-        <v>7.2531999999999996</v>
+        <v>0</v>
       </c>
       <c r="AI12" s="16">
-        <v>24.962299999999999</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:1023 1030:2046 2055:3070 3074:4091 4098:5114 5123:6142 6145:7168 7177:8192 8196:9213 9220:10236 10245:11264 11267:12288 12290:13304 13313:14335 14342:15358 15367:16382" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1023 1030:2046 2055:3070 3074:4091 4098:5114 5123:6142 6145:7168 7177:8192 8196:9213 9220:10236 10245:11264 11267:12288 12290:13304 13313:14335 14342:15358 15367:16382">
       <c r="B13" s="15" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="16">
-        <v>212.74</v>
+        <v>0</v>
       </c>
       <c r="D13" s="16">
-        <v>383.32</v>
+        <v>0</v>
       </c>
       <c r="E13" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="17" t="e">
         <f t="shared" si="0"/>
-        <v>170.57999999999998</v>
-      </c>
-      <c r="F13" s="17">
-        <f t="shared" si="3"/>
-        <v>165.61165048543688</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G13" s="16">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="H13" s="16">
-        <v>6.48</v>
+        <v>0</v>
       </c>
       <c r="J13" s="16">
-        <v>1</v>
-      </c>
-      <c r="K13" s="16">
+        <v>0</v>
+      </c>
+      <c r="K13" s="16" t="e">
         <f t="shared" si="4"/>
-        <v>126.25000000000006</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L13" s="16">
-        <v>224.07</v>
+        <v>0</v>
       </c>
       <c r="M13" s="16">
-        <v>284.67</v>
+        <v>0</v>
       </c>
       <c r="N13" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="16">
+        <v>0</v>
+      </c>
+      <c r="P13" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="16">
+        <v>0</v>
+      </c>
+      <c r="S13" s="16">
+        <v>0</v>
+      </c>
+      <c r="T13" s="16" t="e">
         <f t="shared" si="5"/>
-        <v>60.600000000000023</v>
-      </c>
-      <c r="O13" s="16">
-        <v>0.48</v>
-      </c>
-      <c r="P13" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="16">
-        <v>0</v>
-      </c>
-      <c r="S13" s="16">
-        <v>1.32</v>
-      </c>
-      <c r="T13" s="16">
-        <f t="shared" si="1"/>
-        <v>116.0550458715596</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="U13" s="16">
-        <v>212.96</v>
+        <v>0</v>
       </c>
       <c r="V13" s="16">
-        <v>339.46</v>
+        <v>0</v>
       </c>
       <c r="W13" s="16">
-        <f>V13-U13</f>
-        <v>126.49999999999997</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="X13" s="16">
-        <v>1.0900000000000001</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="16">
-        <v>6.35</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="16">
-        <v>28.65</v>
+        <v>0</v>
       </c>
       <c r="AB13" s="16">
-        <v>1.2</v>
-      </c>
-      <c r="AC13" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="16" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD13" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="16">
         <f t="shared" si="7"/>
-        <v>188.11864406779662</v>
-      </c>
-      <c r="AD13" s="16">
-        <v>212.87</v>
-      </c>
-      <c r="AE13" s="16">
-        <v>434.85</v>
-      </c>
-      <c r="AF13" s="16">
-        <f t="shared" si="2"/>
-        <v>221.98000000000002</v>
+        <v>0</v>
       </c>
       <c r="AG13" s="16">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="AH13" s="16">
-        <v>6.61</v>
+        <v>0</v>
       </c>
       <c r="AI13" s="16">
-        <v>27.91</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:1023 1030:2046 2055:3070 3074:4091 4098:5114 5123:6142 6145:7168 7177:8192 8196:9213 9220:10236 10245:11264 11267:12288 12290:13304 13313:14335 14342:15358 15367:16382" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1023 1030:2046 2055:3070 3074:4091 4098:5114 5123:6142 6145:7168 7177:8192 8196:9213 9220:10236 10245:11264 11267:12288 12290:13304 13313:14335 14342:15358 15367:16382">
       <c r="B14" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="16">
-        <v>207.49</v>
+        <v>0</v>
       </c>
       <c r="D14" s="16">
-        <v>412.94</v>
+        <v>0</v>
       </c>
       <c r="E14" s="16">
+        <f>D14-C14</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="17" t="e">
         <f t="shared" si="0"/>
-        <v>205.45</v>
-      </c>
-      <c r="F14" s="17">
-        <f t="shared" si="3"/>
-        <v>193.8207547169811</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G14" s="16">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="H14" s="16">
-        <v>6.78</v>
+        <v>0</v>
       </c>
       <c r="J14" s="16">
-        <v>1</v>
-      </c>
-      <c r="K14" s="16">
+        <v>0</v>
+      </c>
+      <c r="K14" s="16" t="e">
         <f t="shared" si="4"/>
-        <v>112.46296296296299</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L14" s="16">
-        <v>223.07</v>
+        <v>0</v>
       </c>
       <c r="M14" s="16">
-        <v>283.8</v>
+        <v>0</v>
       </c>
       <c r="N14" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="16">
+        <v>0</v>
+      </c>
+      <c r="P14" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="16">
+        <v>0</v>
+      </c>
+      <c r="S14" s="16">
+        <v>0</v>
+      </c>
+      <c r="T14" s="16" t="e">
         <f t="shared" si="5"/>
-        <v>60.730000000000018</v>
-      </c>
-      <c r="O14" s="16">
-        <v>0.54</v>
-      </c>
-      <c r="P14" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="16">
-        <v>0</v>
-      </c>
-      <c r="S14" s="16">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="T14" s="16">
-        <f t="shared" si="1"/>
-        <v>117.00925925925922</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="U14" s="16">
-        <v>222.27</v>
+        <v>0</v>
       </c>
       <c r="V14" s="16">
-        <v>348.64</v>
+        <v>0</v>
       </c>
       <c r="W14" s="16">
-        <f>V14-U14</f>
-        <v>126.36999999999998</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="X14" s="16">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="16">
-        <v>6.21</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="16">
-        <v>33.1</v>
+        <v>0</v>
       </c>
       <c r="AB14" s="16">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="AC14" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="16" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD14" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="16">
         <f t="shared" si="7"/>
-        <v>212.62962962962959</v>
-      </c>
-      <c r="AD14" s="16">
-        <v>203.25</v>
-      </c>
-      <c r="AE14" s="16">
-        <v>432.89</v>
-      </c>
-      <c r="AF14" s="16">
-        <f t="shared" si="2"/>
-        <v>229.64</v>
+        <v>0</v>
       </c>
       <c r="AG14" s="16">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="AH14" s="16">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AI14" s="16">
-        <v>28.74</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:1023 1030:2046 2055:3070 3074:4091 4098:5114 5123:6142 6145:7168 7177:8192 8196:9213 9220:10236 10245:11264 11267:12288 12290:13304 13313:14335 14342:15358 15367:16382" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1023 1030:2046 2055:3070 3074:4091 4098:5114 5123:6142 6145:7168 7177:8192 8196:9213 9220:10236 10245:11264 11267:12288 12290:13304 13313:14335 14342:15358 15367:16382">
       <c r="B15" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="16"/>
-      <c r="X15" s="16"/>
-      <c r="Y15" s="16"/>
-      <c r="Z15" s="16"/>
-      <c r="AB15" s="16"/>
-      <c r="AC15" s="16"/>
-      <c r="AD15" s="16"/>
-      <c r="AE15" s="16"/>
-      <c r="AF15" s="16"/>
-      <c r="AG15" s="16"/>
-      <c r="AH15" s="16"/>
-      <c r="AI15" s="16"/>
+      <c r="C15" s="16">
+        <v>0</v>
+      </c>
+      <c r="D15" s="16">
+        <v>0</v>
+      </c>
+      <c r="E15" s="16">
+        <f t="shared" ref="E15:E17" si="8">D15-C15</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="17" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G15" s="16">
+        <v>0</v>
+      </c>
+      <c r="H15" s="16">
+        <v>0</v>
+      </c>
+      <c r="J15" s="16">
+        <v>0</v>
+      </c>
+      <c r="K15" s="16" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L15" s="16">
+        <v>0</v>
+      </c>
+      <c r="M15" s="16">
+        <v>0</v>
+      </c>
+      <c r="N15" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="16">
+        <v>0</v>
+      </c>
+      <c r="P15" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="16">
+        <v>0</v>
+      </c>
+      <c r="S15" s="16">
+        <v>0</v>
+      </c>
+      <c r="T15" s="16" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U15" s="16">
+        <v>0</v>
+      </c>
+      <c r="V15" s="16">
+        <v>0</v>
+      </c>
+      <c r="W15" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X15" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="16" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:1023 1030:2046 2055:3070 3074:4091 4098:5114 5123:6142 6145:7168 7177:8192 8196:9213 9220:10236 10245:11264 11267:12288 12290:13304 13313:14335 14342:15358 15367:16382" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1023 1030:2046 2055:3070 3074:4091 4098:5114 5123:6142 6145:7168 7177:8192 8196:9213 9220:10236 10245:11264 11267:12288 12290:13304 13313:14335 14342:15358 15367:16382" s="16" customFormat="1">
       <c r="A16"/>
       <c r="B16" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="17"/>
+      <c r="C16" s="16">
+        <v>0</v>
+      </c>
+      <c r="D16" s="16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="17" t="e">
+        <f t="shared" ref="F16:F17" si="9">E16/G16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G16" s="16">
+        <v>0</v>
+      </c>
+      <c r="H16" s="16">
+        <v>0</v>
+      </c>
       <c r="I16"/>
-      <c r="P16" s="18"/>
+      <c r="J16" s="16">
+        <v>0</v>
+      </c>
+      <c r="K16" s="16" t="e">
+        <f>N16/O16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L16" s="16">
+        <v>0</v>
+      </c>
+      <c r="M16" s="16">
+        <v>0</v>
+      </c>
+      <c r="N16" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="16">
+        <v>0</v>
+      </c>
+      <c r="P16" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="16">
+        <v>0</v>
+      </c>
       <c r="R16"/>
+      <c r="S16" s="16">
+        <v>0</v>
+      </c>
+      <c r="T16" s="16" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U16" s="16">
+        <v>0</v>
+      </c>
+      <c r="V16" s="16">
+        <v>0</v>
+      </c>
+      <c r="W16" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X16" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="16">
+        <v>0</v>
+      </c>
       <c r="AA16"/>
+      <c r="AB16" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="16" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD16" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="16">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="16">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="16">
+        <v>0</v>
+      </c>
       <c r="AP16" s="18"/>
       <c r="AR16"/>
       <c r="BA16"/>
@@ -5603,204 +5787,292 @@
       <c r="XFA16"/>
       <c r="XFB16" s="15"/>
     </row>
-    <row r="17" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:67">
       <c r="B17" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="16"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="16"/>
-      <c r="Y17" s="16"/>
-      <c r="Z17" s="16"/>
-      <c r="AB17" s="16"/>
-      <c r="AC17" s="16"/>
-      <c r="AD17" s="16"/>
-      <c r="AE17" s="16"/>
-      <c r="AF17" s="16"/>
-      <c r="AG17" s="16"/>
-      <c r="AH17" s="16"/>
-      <c r="AI17" s="16"/>
+      <c r="C17" s="16">
+        <v>0</v>
+      </c>
+      <c r="D17" s="16">
+        <v>0</v>
+      </c>
+      <c r="E17" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="17" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G17" s="16">
+        <v>0</v>
+      </c>
+      <c r="H17" s="16">
+        <v>0</v>
+      </c>
+      <c r="J17" s="16">
+        <v>0</v>
+      </c>
+      <c r="K17" s="16" t="e">
+        <f>N17/O17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L17" s="16">
+        <v>0</v>
+      </c>
+      <c r="M17" s="16">
+        <v>0</v>
+      </c>
+      <c r="N17" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="16">
+        <v>0</v>
+      </c>
+      <c r="P17" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="16">
+        <v>0</v>
+      </c>
+      <c r="S17" s="16">
+        <v>0</v>
+      </c>
+      <c r="T17" s="16" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U17" s="16">
+        <v>0</v>
+      </c>
+      <c r="V17" s="16">
+        <v>0</v>
+      </c>
+      <c r="W17" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X17" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="16" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD17" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="16">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="16">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:67">
       <c r="B19" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C19" s="1">
-        <f>AVERAGE(C6:C14)</f>
-        <v>215.29138158296959</v>
+        <f t="shared" ref="C19:AI19" si="10">AVERAGE(C6:C7)</f>
+        <v>243.09621712336303</v>
       </c>
       <c r="D19" s="1">
-        <f>AVERAGE(D6:D14)</f>
-        <v>386.35990288461539</v>
+        <f t="shared" si="10"/>
+        <v>388.84492307692307</v>
       </c>
       <c r="E19" s="1">
-        <f>AVERAGE(E6:E14)</f>
-        <v>171.52630987002189</v>
+        <f t="shared" si="10"/>
+        <v>146.56624441509848</v>
       </c>
       <c r="F19" s="1">
-        <f>AVERAGE(F6:F14)</f>
-        <v>166.379285022</v>
+        <f>AVERAGE(F6:F7)</f>
+        <v>117.37068087898379</v>
       </c>
       <c r="G19" s="1">
-        <f>AVERAGE(G6:G14)</f>
-        <v>1.0556666666666665</v>
+        <f t="shared" si="10"/>
+        <v>1.27</v>
       </c>
       <c r="H19" s="1">
-        <f>AVERAGE(H6:H14)</f>
-        <v>6.7158777777777789</v>
+        <f t="shared" si="10"/>
+        <v>6.6349999999999998</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1">
-        <f>AVERAGE(J6:J14)</f>
-        <v>1.1155555555555554</v>
+        <f t="shared" si="10"/>
+        <v>1.45</v>
       </c>
       <c r="K19" s="1">
-        <f>AVERAGE(K6:K14)</f>
-        <v>132.96494165695702</v>
+        <f t="shared" si="10"/>
+        <v>139.26142723880599</v>
       </c>
       <c r="L19" s="1">
-        <f>AVERAGE(L6:L14)</f>
-        <v>225.49111111111111</v>
+        <f t="shared" si="10"/>
+        <v>202.32</v>
       </c>
       <c r="M19" s="1">
-        <f>AVERAGE(M6:M14)</f>
-        <v>298.3</v>
+        <f t="shared" si="10"/>
+        <v>293.64</v>
       </c>
       <c r="N19" s="1">
-        <f>AVERAGE(N6:N14)</f>
-        <v>72.808888888888916</v>
+        <f t="shared" si="10"/>
+        <v>91.320000000000007</v>
       </c>
       <c r="O19" s="1">
-        <f>AVERAGE(O6:O14)</f>
-        <v>0.54560844444444445</v>
+        <f t="shared" si="10"/>
+        <v>0.65500000000000003</v>
       </c>
       <c r="P19" s="1">
-        <f>AVERAGE(P6:P14)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q19" s="1">
-        <f>AVERAGE(Q6:Q14)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R19" s="1"/>
       <c r="S19" s="1">
-        <f>AVERAGE(S6:S14)</f>
-        <v>1.4644444444444444</v>
+        <f t="shared" si="10"/>
+        <v>1.2250000000000001</v>
       </c>
       <c r="T19" s="1">
-        <f>AVERAGE(T6:T14)</f>
-        <v>118.24279194068168</v>
+        <f t="shared" si="10"/>
+        <v>78.855603448275843</v>
       </c>
       <c r="U19" s="1">
-        <f>AVERAGE(U6:U14)</f>
-        <v>215.24888888888887</v>
+        <f t="shared" si="10"/>
+        <v>250.13499999999999</v>
       </c>
       <c r="V19" s="1">
-        <f>AVERAGE(V6:V14)</f>
-        <v>351.61898888888879</v>
+        <f t="shared" si="10"/>
+        <v>348.65</v>
       </c>
       <c r="W19" s="1">
-        <f>AVERAGE(W6:W14)</f>
-        <v>136.28009999999998</v>
+        <f t="shared" si="10"/>
+        <v>98.109999999999985</v>
       </c>
       <c r="X19" s="1">
-        <f>AVERAGE(X6:X14)</f>
-        <v>1.1635</v>
+        <f t="shared" si="10"/>
+        <v>1.26</v>
       </c>
       <c r="Y19" s="1">
-        <f>AVERAGE(Y6:Y14)</f>
-        <v>6.4644444444444442</v>
+        <f t="shared" si="10"/>
+        <v>6.1850000000000005</v>
       </c>
       <c r="Z19" s="1">
-        <f>AVERAGE(Z6:Z14)</f>
-        <v>25.055555555555557</v>
+        <f t="shared" si="10"/>
+        <v>23.175000000000001</v>
       </c>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1">
-        <f>AVERAGE(AB6:AB14)</f>
-        <v>1.1544444444444444</v>
+        <f t="shared" si="10"/>
+        <v>1.0049999999999999</v>
       </c>
       <c r="AC19" s="1">
-        <f>AVERAGE(AC6:AC14)</f>
-        <v>172.87849100715096</v>
+        <f t="shared" si="10"/>
+        <v>125.55361946686233</v>
       </c>
       <c r="AD19" s="1">
-        <f>AVERAGE(AD6:AD14)</f>
-        <v>222.26999999999998</v>
+        <f t="shared" si="10"/>
+        <v>242.79000000000002</v>
       </c>
       <c r="AE19" s="1">
-        <f>AVERAGE(AE6:AE14)</f>
-        <v>420.27777777777771</v>
+        <f t="shared" si="10"/>
+        <v>401.84000000000003</v>
       </c>
       <c r="AF19" s="1">
-        <f>AVERAGE(AF6:AF14)</f>
-        <v>198.00777777777779</v>
+        <f t="shared" si="10"/>
+        <v>159.05000000000001</v>
       </c>
       <c r="AG19" s="1">
-        <f>AVERAGE(AG6:AG14)</f>
-        <v>1.1601198888888886</v>
+        <f t="shared" si="10"/>
+        <v>1.2849999999999999</v>
       </c>
       <c r="AH19" s="1">
-        <f>AVERAGE(AH6:AH14)</f>
-        <v>6.9025777777777773</v>
+        <f t="shared" si="10"/>
+        <v>6.78</v>
       </c>
       <c r="AI19" s="1">
-        <f>AVERAGE(AI6:AI14)</f>
-        <v>24.391366666666666</v>
+        <f t="shared" si="10"/>
+        <v>21.954999999999998</v>
       </c>
     </row>
-    <row r="20" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B20" s="15"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
-      <c r="AA20" s="1"/>
-      <c r="AB20" s="1"/>
-      <c r="AC20" s="1"/>
-      <c r="AD20" s="1"/>
-      <c r="AE20" s="1"/>
-      <c r="AF20" s="1"/>
-      <c r="AG20" s="1"/>
-      <c r="AH20" s="1"/>
-      <c r="AI20" s="1"/>
+    <row r="21" spans="2:67" s="19" customFormat="1" ht="13.2" customHeight="1">
+      <c r="B21" s="20"/>
+      <c r="C21" s="21"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="22"/>
+      <c r="V21" s="22"/>
+      <c r="W21" s="22"/>
+      <c r="X21" s="22"/>
+      <c r="Y21" s="22"/>
+      <c r="Z21" s="22"/>
+      <c r="AA21" s="22"/>
+      <c r="AB21" s="22"/>
+      <c r="AC21" s="22"/>
+      <c r="AD21" s="22"/>
+      <c r="AE21" s="22"/>
+      <c r="AF21" s="22"/>
+      <c r="AG21" s="22"/>
+      <c r="AH21" s="22"/>
+      <c r="AI21" s="22"/>
+      <c r="AJ21" s="22"/>
+      <c r="AK21" s="22"/>
+      <c r="AL21" s="22"/>
+      <c r="AM21" s="22"/>
+      <c r="BC21" s="23"/>
+      <c r="BO21" s="23"/>
+    </row>
+    <row r="22" spans="2:67">
+      <c r="AB22" s="33"/>
+      <c r="AC22" s="33"/>
+      <c r="AD22" s="33"/>
+      <c r="AE22" s="33"/>
+      <c r="AF22" s="33"/>
+      <c r="AG22" s="33"/>
+      <c r="AH22" s="33"/>
+      <c r="AI22" s="33"/>
+    </row>
+    <row r="23" spans="2:67">
+      <c r="AB23" s="35"/>
+      <c r="AC23" s="35"/>
+      <c r="AD23" s="35"/>
+      <c r="AE23" s="35"/>
+      <c r="AF23" s="34"/>
+      <c r="AG23" s="34"/>
+      <c r="AH23" s="34"/>
+      <c r="AI23" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="4">
